--- a/TableReader/src/test/TestData/GetTable_Test.xlsx
+++ b/TableReader/src/test/TestData/GetTable_Test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21090" windowHeight="8280" tabRatio="863" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21090" windowHeight="8280" tabRatio="863" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GetTable_test_001" sheetId="13" r:id="rId1"/>
@@ -519,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -877,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>

--- a/TableReader/src/test/TestData/GetTable_Test.xlsx
+++ b/TableReader/src/test/TestData/GetTable_Test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21090" windowHeight="8280" tabRatio="863" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21090" windowHeight="8280" tabRatio="863" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="GetTable_test_001" sheetId="13" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="GetTable_test_004" sheetId="16" r:id="rId4"/>
     <sheet name="GetTable_test_005" sheetId="17" r:id="rId5"/>
     <sheet name="GetTable_test_006" sheetId="19" r:id="rId6"/>
+    <sheet name="GetTable_test_007" sheetId="20" r:id="rId7"/>
+    <sheet name="GetTable_test_008" sheetId="21" r:id="rId8"/>
+    <sheet name="GetTable_test_009" sheetId="22" r:id="rId9"/>
+    <sheet name="GetTable_test_010" sheetId="23" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="22">
   <si>
     <t>Item_r_001_c_002</t>
   </si>
@@ -96,6 +100,10 @@
   </si>
   <si>
     <t>Item_r_001_c_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item_r_002_c_002</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -427,7 +435,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F7"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -515,12 +523,102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -961,4 +1059,274 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>